--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Cx3cr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Cx3cr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Cx3cr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H2">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I2">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J2">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1625483333333333</v>
+        <v>0.2499236666666667</v>
       </c>
       <c r="N2">
-        <v>0.487645</v>
+        <v>0.749771</v>
       </c>
       <c r="O2">
-        <v>0.002044723966017375</v>
+        <v>0.001758351709792661</v>
       </c>
       <c r="P2">
-        <v>0.002044723966017375</v>
+        <v>0.001761899444490721</v>
       </c>
       <c r="Q2">
-        <v>1.685555941603889</v>
+        <v>2.477368928988556</v>
       </c>
       <c r="R2">
-        <v>15.170003474435</v>
+        <v>22.296320360897</v>
       </c>
       <c r="S2">
-        <v>0.0006265228368122261</v>
+        <v>0.0005394626603058016</v>
       </c>
       <c r="T2">
-        <v>0.0006411878319034983</v>
+        <v>0.0005471548812791893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H3">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I3">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J3">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.5609919999999999</v>
       </c>
       <c r="O3">
-        <v>0.002352272220865628</v>
+        <v>0.001315630028875489</v>
       </c>
       <c r="P3">
-        <v>0.002352272220865628</v>
+        <v>0.001318284507087815</v>
       </c>
       <c r="Q3">
-        <v>1.939081501486222</v>
+        <v>1.853611502993778</v>
       </c>
       <c r="R3">
-        <v>17.451733513376</v>
+        <v>16.682503526944</v>
       </c>
       <c r="S3">
-        <v>0.0007207585421135546</v>
+        <v>0.0004036355590310538</v>
       </c>
       <c r="T3">
-        <v>0.0007376293086060707</v>
+        <v>0.0004093910156015302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H4">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I4">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J4">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.99015499999999</v>
+        <v>65.27867500000001</v>
       </c>
       <c r="N4">
-        <v>113.970465</v>
+        <v>195.836025</v>
       </c>
       <c r="O4">
-        <v>0.4778848162159858</v>
+        <v>0.4592717101591663</v>
       </c>
       <c r="P4">
-        <v>0.4778848162159858</v>
+        <v>0.4601983587772412</v>
       </c>
       <c r="Q4">
-        <v>393.9414829396549</v>
+        <v>647.0750182544084</v>
       </c>
       <c r="R4">
-        <v>3545.473346456895</v>
+        <v>5823.675164289675</v>
       </c>
       <c r="S4">
-        <v>0.1464284449642845</v>
+        <v>0.1409046535945155</v>
       </c>
       <c r="T4">
-        <v>0.14985588974435</v>
+        <v>0.1429138190314954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H5">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I5">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J5">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>41.15676733333333</v>
+        <v>0.858604</v>
       </c>
       <c r="N5">
-        <v>123.470302</v>
+        <v>1.717208</v>
       </c>
       <c r="O5">
-        <v>0.5177181875971312</v>
+        <v>0.006040755689809892</v>
       </c>
       <c r="P5">
-        <v>0.5177181875971312</v>
+        <v>0.004035295872039625</v>
       </c>
       <c r="Q5">
-        <v>426.7778838042562</v>
+        <v>8.510914153409335</v>
       </c>
       <c r="R5">
-        <v>3841.000954238306</v>
+        <v>51.065484920456</v>
       </c>
       <c r="S5">
-        <v>0.1586337681532719</v>
+        <v>0.001853305067770836</v>
       </c>
       <c r="T5">
-        <v>0.1623469024471699</v>
+        <v>0.001253154282269752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.94273533333333</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H6">
-        <v>62.82820599999999</v>
+        <v>29.737507</v>
       </c>
       <c r="I6">
-        <v>0.6188351484978608</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J6">
-        <v>0.6333201981749051</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1625483333333333</v>
+        <v>75.560997</v>
       </c>
       <c r="N6">
-        <v>0.487645</v>
+        <v>226.682991</v>
       </c>
       <c r="O6">
-        <v>0.002044723966017375</v>
+        <v>0.5316135524123556</v>
       </c>
       <c r="P6">
-        <v>0.002044723966017375</v>
+        <v>0.5326861613991406</v>
       </c>
       <c r="Q6">
-        <v>3.404206723874444</v>
+        <v>748.9985590714931</v>
       </c>
       <c r="R6">
-        <v>30.63786051487</v>
+        <v>6740.987031643437</v>
       </c>
       <c r="S6">
-        <v>0.001265347059147497</v>
+        <v>0.1630991454336538</v>
       </c>
       <c r="T6">
-        <v>0.001294964987371102</v>
+        <v>0.16542478307192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I7">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J7">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1869973333333333</v>
+        <v>0.2499236666666667</v>
       </c>
       <c r="N7">
-        <v>0.5609919999999999</v>
+        <v>0.749771</v>
       </c>
       <c r="O7">
-        <v>0.002352272220865628</v>
+        <v>0.001758351709792661</v>
       </c>
       <c r="P7">
-        <v>0.002352272220865628</v>
+        <v>0.001761899444490721</v>
       </c>
       <c r="Q7">
-        <v>3.91623566003911</v>
+        <v>5.234085204536221</v>
       </c>
       <c r="R7">
-        <v>35.24612094035199</v>
+        <v>47.10676684082599</v>
       </c>
       <c r="S7">
-        <v>0.001455668729106774</v>
+        <v>0.001139754961671835</v>
       </c>
       <c r="T7">
-        <v>0.001489741509079944</v>
+        <v>0.001156006776052695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I8">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J8">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>37.99015499999999</v>
+        <v>0.1869973333333333</v>
       </c>
       <c r="N8">
-        <v>113.970465</v>
+        <v>0.5609919999999999</v>
       </c>
       <c r="O8">
-        <v>0.4778848162159858</v>
+        <v>0.001315630028875489</v>
       </c>
       <c r="P8">
-        <v>0.4778848162159858</v>
+        <v>0.001318284507087815</v>
       </c>
       <c r="Q8">
-        <v>795.6177614373098</v>
+        <v>3.91623566003911</v>
       </c>
       <c r="R8">
-        <v>7160.559852935789</v>
+        <v>35.24612094035199</v>
       </c>
       <c r="S8">
-        <v>0.2957319212078925</v>
+        <v>0.0008527849376118922</v>
       </c>
       <c r="T8">
-        <v>0.3026541065106862</v>
+        <v>0.0008649448342378581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I9">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J9">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,95 +992,95 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.15676733333333</v>
+        <v>65.27867500000001</v>
       </c>
       <c r="N9">
-        <v>123.470302</v>
+        <v>195.836025</v>
       </c>
       <c r="O9">
-        <v>0.5177181875971312</v>
+        <v>0.4592717101591663</v>
       </c>
       <c r="P9">
-        <v>0.5177181875971312</v>
+        <v>0.4601983587772412</v>
       </c>
       <c r="Q9">
-        <v>861.9352854375791</v>
+        <v>1367.114013435683</v>
       </c>
       <c r="R9">
-        <v>7757.417568938212</v>
+        <v>12304.02612092115</v>
       </c>
       <c r="S9">
-        <v>0.320382211501714</v>
+        <v>0.2976976719129435</v>
       </c>
       <c r="T9">
-        <v>0.3278813851677678</v>
+        <v>0.3019425556539596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2078093333333333</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H10">
-        <v>0.623428</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I10">
-        <v>0.006140540746264892</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J10">
-        <v>0.006284272138978229</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1625483333333333</v>
+        <v>0.858604</v>
       </c>
       <c r="N10">
-        <v>0.487645</v>
+        <v>1.717208</v>
       </c>
       <c r="O10">
-        <v>0.002044723966017375</v>
+        <v>0.006040755689809892</v>
       </c>
       <c r="P10">
-        <v>0.002044723966017375</v>
+        <v>0.004035295872039625</v>
       </c>
       <c r="Q10">
-        <v>0.03377906078444444</v>
+        <v>17.98151632814133</v>
       </c>
       <c r="R10">
-        <v>0.30401154706</v>
+        <v>107.889097968848</v>
       </c>
       <c r="S10">
-        <v>1.255571082819404E-05</v>
+        <v>0.003915588236053212</v>
       </c>
       <c r="T10">
-        <v>1.284960185154406E-05</v>
+        <v>0.002647613849951379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,55 +1089,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2078093333333333</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H11">
-        <v>0.623428</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I11">
-        <v>0.006140540746264892</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J11">
-        <v>0.006284272138978229</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1869973333333333</v>
+        <v>75.560997</v>
       </c>
       <c r="N11">
-        <v>0.5609919999999999</v>
+        <v>226.682991</v>
       </c>
       <c r="O11">
-        <v>0.002352272220865628</v>
+        <v>0.5316135524123556</v>
       </c>
       <c r="P11">
-        <v>0.002352272220865628</v>
+        <v>0.5326861613991406</v>
       </c>
       <c r="Q11">
-        <v>0.0388597911751111</v>
+        <v>1582.453961693794</v>
       </c>
       <c r="R11">
-        <v>0.349738120576</v>
+        <v>14242.08565524414</v>
       </c>
       <c r="S11">
-        <v>1.44442234185324E-05</v>
+        <v>0.3445892995579476</v>
       </c>
       <c r="T11">
-        <v>1.478231878087831E-05</v>
+        <v>0.3495028130080944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H12">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I12">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J12">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>37.99015499999999</v>
+        <v>0.2499236666666667</v>
       </c>
       <c r="N12">
-        <v>113.970465</v>
+        <v>0.749771</v>
       </c>
       <c r="O12">
-        <v>0.4778848162159858</v>
+        <v>0.001758351709792661</v>
       </c>
       <c r="P12">
-        <v>0.4778848162159858</v>
+        <v>0.001761899444490721</v>
       </c>
       <c r="Q12">
-        <v>7.894708783779998</v>
+        <v>0.2923737012973334</v>
       </c>
       <c r="R12">
-        <v>71.05237905401999</v>
+        <v>1.754242207784</v>
       </c>
       <c r="S12">
-        <v>0.00293447118599557</v>
+        <v>6.366621170537893E-05</v>
       </c>
       <c r="T12">
-        <v>0.003003158236186851</v>
+        <v>4.304935394713632E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H13">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I13">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J13">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>41.15676733333333</v>
+        <v>0.1869973333333333</v>
       </c>
       <c r="N13">
-        <v>123.470302</v>
+        <v>0.5609919999999999</v>
       </c>
       <c r="O13">
-        <v>0.5177181875971312</v>
+        <v>0.001315630028875489</v>
       </c>
       <c r="P13">
-        <v>0.5177181875971312</v>
+        <v>0.001318284507087815</v>
       </c>
       <c r="Q13">
-        <v>8.55276038169511</v>
+        <v>0.2187592043946667</v>
       </c>
       <c r="R13">
-        <v>76.97484343525601</v>
+        <v>1.312555226368</v>
       </c>
       <c r="S13">
-        <v>0.003179069626022595</v>
+        <v>4.763619216670682E-05</v>
       </c>
       <c r="T13">
-        <v>0.003253481982158955</v>
+        <v>3.221029243530611E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3220755</v>
+        <v>1.169852</v>
       </c>
       <c r="H14">
-        <v>4.644151</v>
+        <v>2.339704</v>
       </c>
       <c r="I14">
-        <v>0.06861481625939206</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J14">
-        <v>0.04681392035408721</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1625483333333333</v>
+        <v>65.27867500000001</v>
       </c>
       <c r="N14">
-        <v>0.487645</v>
+        <v>195.836025</v>
       </c>
       <c r="O14">
-        <v>0.002044723966017375</v>
+        <v>0.4592717101591663</v>
       </c>
       <c r="P14">
-        <v>0.002044723966017375</v>
+        <v>0.4601983587772412</v>
       </c>
       <c r="Q14">
-        <v>0.3774495023991666</v>
+        <v>76.36638850610001</v>
       </c>
       <c r="R14">
-        <v>2.264697014395</v>
+        <v>458.1983310366001</v>
       </c>
       <c r="S14">
-        <v>0.0001402983592294576</v>
+        <v>0.01662926123735098</v>
       </c>
       <c r="T14">
-        <v>9.572154489123072E-05</v>
+        <v>0.01124425238616223</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3220755</v>
+        <v>1.169852</v>
       </c>
       <c r="H15">
-        <v>4.644151</v>
+        <v>2.339704</v>
       </c>
       <c r="I15">
-        <v>0.06861481625939206</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J15">
-        <v>0.04681392035408721</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1869973333333333</v>
+        <v>0.858604</v>
       </c>
       <c r="N15">
-        <v>0.5609919999999999</v>
+        <v>1.717208</v>
       </c>
       <c r="O15">
-        <v>0.002352272220865628</v>
+        <v>0.006040755689809892</v>
       </c>
       <c r="P15">
-        <v>0.002352272220865628</v>
+        <v>0.004035295872039625</v>
       </c>
       <c r="Q15">
-        <v>0.4342219262986666</v>
+        <v>1.004439606608</v>
       </c>
       <c r="R15">
-        <v>2.605331557792</v>
+        <v>4.017758426432001</v>
       </c>
       <c r="S15">
-        <v>0.0001614007262267672</v>
+        <v>0.000218723039575091</v>
       </c>
       <c r="T15">
-        <v>0.0001101190843987353</v>
+        <v>9.85963647471749E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3220755</v>
+        <v>1.169852</v>
       </c>
       <c r="H16">
-        <v>4.644151</v>
+        <v>2.339704</v>
       </c>
       <c r="I16">
-        <v>0.06861481625939206</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J16">
-        <v>0.04681392035408721</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.99015499999999</v>
+        <v>75.560997</v>
       </c>
       <c r="N16">
-        <v>113.970465</v>
+        <v>226.682991</v>
       </c>
       <c r="O16">
-        <v>0.4778848162159858</v>
+        <v>0.5316135524123556</v>
       </c>
       <c r="P16">
-        <v>0.4778848162159858</v>
+        <v>0.5326861613991406</v>
       </c>
       <c r="Q16">
-        <v>88.21600816670248</v>
+        <v>88.39518346244401</v>
       </c>
       <c r="R16">
-        <v>529.2960490002149</v>
+        <v>530.371100774664</v>
       </c>
       <c r="S16">
-        <v>0.03278997885781321</v>
+        <v>0.01924860696801358</v>
       </c>
       <c r="T16">
-        <v>0.02237166172476276</v>
+        <v>0.01301538244791345</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.852656</v>
+      </c>
+      <c r="I17">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J17">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2499236666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.749771</v>
+      </c>
+      <c r="O17">
+        <v>0.001758351709792661</v>
+      </c>
+      <c r="P17">
+        <v>0.001761899444490721</v>
+      </c>
+      <c r="Q17">
+        <v>0.07103297130844444</v>
+      </c>
+      <c r="R17">
+        <v>0.6392967417759999</v>
+      </c>
+      <c r="S17">
+        <v>1.546787610964509E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.568843321170091E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.852656</v>
+      </c>
+      <c r="I18">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J18">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1869973333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.5609919999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.001315630028875489</v>
+      </c>
+      <c r="P18">
+        <v>0.001318284507087815</v>
+      </c>
+      <c r="Q18">
+        <v>0.05314813275022222</v>
+      </c>
+      <c r="R18">
+        <v>0.4783331947519999</v>
+      </c>
+      <c r="S18">
+        <v>1.157334006583612E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.173836481312096E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.3220755</v>
-      </c>
-      <c r="H17">
-        <v>4.644151</v>
-      </c>
-      <c r="I17">
-        <v>0.06861481625939206</v>
-      </c>
-      <c r="J17">
-        <v>0.04681392035408721</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>41.15676733333333</v>
-      </c>
-      <c r="N17">
-        <v>123.470302</v>
-      </c>
-      <c r="O17">
-        <v>0.5177181875971312</v>
-      </c>
-      <c r="P17">
-        <v>0.5177181875971312</v>
-      </c>
-      <c r="Q17">
-        <v>95.56912108393367</v>
-      </c>
-      <c r="R17">
-        <v>573.414726503602</v>
-      </c>
-      <c r="S17">
-        <v>0.03552313831612262</v>
-      </c>
-      <c r="T17">
-        <v>0.02423641800003448</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.852656</v>
+      </c>
+      <c r="I19">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J19">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>65.27867500000001</v>
+      </c>
+      <c r="N19">
+        <v>195.836025</v>
+      </c>
+      <c r="O19">
+        <v>0.4592717101591663</v>
+      </c>
+      <c r="P19">
+        <v>0.4601983587772412</v>
+      </c>
+      <c r="Q19">
+        <v>18.55341797026667</v>
+      </c>
+      <c r="R19">
+        <v>166.9807617324</v>
+      </c>
+      <c r="S19">
+        <v>0.004040123414356328</v>
+      </c>
+      <c r="T19">
+        <v>0.004097731705624105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.852656</v>
+      </c>
+      <c r="I20">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J20">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.858604</v>
+      </c>
+      <c r="N20">
+        <v>1.717208</v>
+      </c>
+      <c r="O20">
+        <v>0.006040755689809892</v>
+      </c>
+      <c r="P20">
+        <v>0.004035295872039625</v>
+      </c>
+      <c r="Q20">
+        <v>0.2440312840746667</v>
+      </c>
+      <c r="R20">
+        <v>1.464187704448</v>
+      </c>
+      <c r="S20">
+        <v>5.31393464107536E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.593137507131977E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.852656</v>
+      </c>
+      <c r="I21">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J21">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>75.560997</v>
+      </c>
+      <c r="N21">
+        <v>226.682991</v>
+      </c>
+      <c r="O21">
+        <v>0.5316135524123556</v>
+      </c>
+      <c r="P21">
+        <v>0.5326861613991406</v>
+      </c>
+      <c r="Q21">
+        <v>21.475845819344</v>
+      </c>
+      <c r="R21">
+        <v>193.282612374096</v>
+      </c>
+      <c r="S21">
+        <v>0.004676500452740627</v>
+      </c>
+      <c r="T21">
+        <v>0.004743182871212809</v>
       </c>
     </row>
   </sheetData>
